--- a/Mapping/Other Packages.xlsx
+++ b/Mapping/Other Packages.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Procedures" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Group</t>
   </si>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +507,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -557,7 +560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED91EF81-2F7A-4DAA-AD22-B6B24DF23018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -640,10 +643,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F65207-FD03-42F6-93C5-F3BF63CB907C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -712,7 +715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC10F3C5-E19F-49CC-9698-CE0E535C96B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -726,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3606A190-64C1-48B4-A9BF-4588916B8305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Mapping/Other Packages.xlsx
+++ b/Mapping/Other Packages.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Array Types" sheetId="7" r:id="rId4"/>
     <sheet name="Constants" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Group</t>
   </si>
@@ -107,6 +107,33 @@
   </si>
   <si>
     <t>Setups all of the variables for the engage run</t>
+  </si>
+  <si>
+    <t>Index Type</t>
+  </si>
+  <si>
+    <t>Array Values Type</t>
+  </si>
+  <si>
+    <t>General_Checks</t>
+  </si>
+  <si>
+    <t>Mask_Type</t>
+  </si>
+  <si>
+    <t>Mask_Index_Array_Type</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Constant Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Attribute</t>
   </si>
 </sst>
 </file>
@@ -459,7 +486,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +591,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,10 +658,10 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -716,26 +743,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mapping/Other Packages.xlsx
+++ b/Mapping/Other Packages.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Group</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Initialise_Engager</t>
   </si>
   <si>
-    <t>Setups all of the variables for the engage run</t>
-  </si>
-  <si>
     <t>Index Type</t>
   </si>
   <si>
@@ -134,6 +131,39 @@
   </si>
   <si>
     <t>Attribute</t>
+  </si>
+  <si>
+    <t>Setups the variables for the engage run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While Check_Value &lt; 5
+       Increment Check_Value + 1
+       If Check_Value = 2
+             Set Ex_Range_Distance_1 
+             Ex_Range_Distance_2 to max
+       If Check_Value = 3
+             Set Ex_Range_Distance_1 
+             Ex_Range_Distance_2 to min
+</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Call_Failure</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Input a test Id to see if a failure occurred</t>
+  </si>
+  <si>
+    <t>Test_Id Local = Test_Id
+If Failure_Data_Structure(Tests_Id_Local) = True</t>
+  </si>
+  <si>
+    <t>Hex_Value_Lock</t>
   </si>
 </sst>
 </file>
@@ -486,7 +516,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +525,7 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -519,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -530,14 +560,28 @@
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
@@ -591,7 +635,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,24 +809,24 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -792,17 +836,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -812,16 +856,33 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Mapping/Other Packages.xlsx
+++ b/Mapping/Other Packages.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" xr2:uid="{FCBA4B19-358E-444E-B1EE-F710C03714B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Procedures" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>Group</t>
   </si>
@@ -71,9 +72,6 @@
   </si>
   <si>
     <t>Round_Fail_Check</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Round_Fail_1</t>
@@ -165,14 +163,211 @@
   <si>
     <t>Hex_Value_Lock</t>
   </si>
+  <si>
+    <t>Pass in array
+Add 5 to each value
+Clear Monitor
+Check if value is greater than 10
+Restart monitor
+Set values in array to zero</t>
+  </si>
+  <si>
+    <t>Monitor_Log</t>
+  </si>
+  <si>
+    <t>Clears and restarts the monitor</t>
+  </si>
+  <si>
+    <t>Warhead</t>
+  </si>
+  <si>
+    <t>Sets the density and radius of the warhead</t>
+  </si>
+  <si>
+    <t>Stage_Run</t>
+  </si>
+  <si>
+    <t>Count_Begin</t>
+  </si>
+  <si>
+    <t>Starts the Count</t>
+  </si>
+  <si>
+    <t>Explosion_Launch</t>
+  </si>
+  <si>
+    <t>Select_Target</t>
+  </si>
+  <si>
+    <t>From a target input, the function selects a target variable from a array</t>
+  </si>
+  <si>
+    <t>If Simulation_Id'Valid   
+    return True
+else
+    return False
+end if</t>
+  </si>
+  <si>
+    <t>Get_Count</t>
+  </si>
+  <si>
+    <t>Returns a failure in the count if it occurs one in a loop</t>
+  </si>
+  <si>
+    <t>Release_Warhead</t>
+  </si>
+  <si>
+    <t>Outputs a time based of explosion pin for explosion count check</t>
+  </si>
+  <si>
+    <t>Get_Impact</t>
+  </si>
+  <si>
+    <t>Returns a area squared</t>
+  </si>
+  <si>
+    <t>Return Target_Variable * Explosion_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage = Pre_Start
+case Pre_Start:
+      Start_Countdown = Count_Begin(Simulation_Id)
+      Explosition_Count = Explosion_Launch
+      if Start_Countdown = True
+          Target_Variable  = Select_Target(Input)
+          Stage = Count_Release
+      end if
+case Count_Release:
+      Countdown_Release = Get_Count
+      if Countdown_Release = True
+            x = Release_Warhead(Target_Variable)
+            if Explosion_Count is = x
+                Stage = Get_Impact_Coverage
+            else 
+                Stage = Pre_Start
+            end if
+      end if
+case Get_Impact_Coverage:
+       if Get_Impact(Target_Variable,  
+                                Explosion_Count) = Target_Area 
+            Density = Density + Density_Change
+            Radius = Radius - Radius_Change
+       else 
+            Density = Density - Density_Change
+            Radius = Radius + Radius_Change
+end switch
+</t>
+  </si>
+  <si>
+    <t>Sets a random output from 0 to 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Target_Variable &lt; 50
+    Return_Value = 1
+else if Target_Variable &lt; 100 and &gt; 50
+      Return_Value = 2
+else if Target_Variable &lt; 150 and &gt; 100
+      Return_Value = 3
+else if Target_Variable &lt; 200 and &gt; 150
+      Return_Value = 4
+else if Target_Variable &lt; 400
+      Return_Value = 5
+else
+      Return_Value = 6
+end if
+</t>
+  </si>
+  <si>
+    <t>Explosion_Launch_Type</t>
+  </si>
+  <si>
+    <t>Target_Axis_Type</t>
+  </si>
+  <si>
+    <t>Sel_Target_Type</t>
+  </si>
+  <si>
+    <t>Target_Variable = Sel_Target_Type
+Return = Explosion_Launch_Type</t>
+  </si>
+  <si>
+    <t>Return Random(Value)</t>
+  </si>
+  <si>
+    <t>Value = Explosion_Launch_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Input'Valid
+    return Value = (Input * 50) - 100
+else 
+     return 0
+end if </t>
+  </si>
+  <si>
+    <t>Input = Target_Axis_Type
+Value = Sel_Target_Type</t>
+  </si>
+  <si>
+    <t>Target_Variable = Sel_Target_Type
+Explosion_Count = Explosion_Launch_Type</t>
+  </si>
+  <si>
+    <t>Simulation_Id = Simulation_Id_Type</t>
+  </si>
+  <si>
+    <t>Simulation_Id_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_10101000
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While Timer &lt; Time_Constant_1 loop
+   for Range of Index_Array_Count loop
+      if Array_Count(Index) &lt; Constant_2 
+         Count_Failure_Array(Index) = True
+         Exit_Loop = True
+      else
+         Count_Failure_Array(Index) = False
+      end if
+   end loop 
+End Loop
+If Exit_Loop = True
+   Return False
+else
+   Return True
+End if </t>
+  </si>
+  <si>
+    <t>Timer_Millis_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timer, Timer_Constant_1 = Timer_Millis_Type
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -226,13 +421,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,21 +719,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="1">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -549,93 +759,353 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +1113,7 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -675,11 +1145,8 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -693,19 +1160,87 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -714,11 +1249,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,9 +1264,10 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -755,9 +1294,6 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
@@ -765,19 +1301,36 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -786,12 +1339,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -809,24 +1363,24 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -835,12 +1389,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -856,16 +1411,16 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,10 +1428,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>

--- a/Mapping/Other Packages.xlsx
+++ b/Mapping/Other Packages.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" xr2:uid="{FCBA4B19-358E-444E-B1EE-F710C03714B3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Procedures" sheetId="1" r:id="rId1"/>
     <sheet name="Range Types" sheetId="5" r:id="rId2"/>
-    <sheet name="Enum Types" sheetId="3" r:id="rId3"/>
-    <sheet name="Array Types" sheetId="7" r:id="rId4"/>
-    <sheet name="Constants" sheetId="6" r:id="rId5"/>
+    <sheet name="Boolean" sheetId="8" r:id="rId3"/>
+    <sheet name="Enum Types" sheetId="3" r:id="rId4"/>
+    <sheet name="Array Types" sheetId="7" r:id="rId5"/>
+    <sheet name="Constants" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>Group</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Algorithm</t>
-  </si>
-  <si>
-    <t>Additional Info</t>
   </si>
   <si>
     <t>Type Name</t>
@@ -162,14 +159,6 @@
   </si>
   <si>
     <t>Hex_Value_Lock</t>
-  </si>
-  <si>
-    <t>Pass in array
-Add 5 to each value
-Clear Monitor
-Check if value is greater than 10
-Restart monitor
-Set values in array to zero</t>
   </si>
   <si>
     <t>Monitor_Log</t>
@@ -323,13 +312,25 @@
 </t>
   </si>
   <si>
+    <t>Timer_Millis_Type</t>
+  </si>
+  <si>
+    <t>Count_Array_Type</t>
+  </si>
+  <si>
+    <t>Count_Array_Index_Type</t>
+  </si>
+  <si>
+    <t>Count_Value_Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">While Timer &lt; Time_Constant_1 loop
-   for Range of Index_Array_Count loop
-      if Array_Count(Index) &lt; Constant_2 
-         Count_Failure_Array(Index) = True
-         Exit_Loop = True
+   for Range of Count_Array loop
+      if Count_Array(Index) &lt; Cnt_Acc_Tmr_Cons 
+          Count_Failure_Array(Index) = True
+          Exit_Loop = True
       else
-         Count_Failure_Array(Index) = False
+          Count_Failure_Array(Index) = False
       end if
    end loop 
 End Loop
@@ -340,17 +341,72 @@
 End if </t>
   </si>
   <si>
-    <t>Timer_Millis_Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timer, Timer_Constant_1 = Timer_Millis_Type
-</t>
+    <t xml:space="preserve">Cnt_Acc_Tmr_Cons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnt_Rej_Tmr_Cons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnt_Act_Tmr_Cons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnt_Knk_Tmr_Cons </t>
+  </si>
+  <si>
+    <t>Count_Failure_Array_Type</t>
+  </si>
+  <si>
+    <t>Timer= Timer_Millis_Type
+Timer_Constant_1 = Timer_Cons_Lock
+Count_Array = Count_Array_Type
+Index = Count_Array_Index_Type
+Cnt_Acc_Tmr_Cons = Count_Value_Type
+Count_Failure_Array = Count_Failure_Array_Type
+Exit_Loop = Boolean</t>
+  </si>
+  <si>
+    <t>Timer_Cons_Lock</t>
+  </si>
+  <si>
+    <t>Signal Traces</t>
+  </si>
+  <si>
+    <t>Monitor_Clear_Run_Type</t>
+  </si>
+  <si>
+    <t>When Trigger_Monitor_Signal = TRUE
+          While Timer &lt; Constant_1
+                    Monitor_Clear_Run = True
+                    Wait for Delay_1
+                    Stage_Monitor()
+           End loop
+           Monitor_Restart = True
+           If x = Monitor_Run() = TRUE
+                 Trigger_Monitor_Signal = FALSE
+           End if
+End When</t>
+  </si>
+  <si>
+    <t>Trigger_Monitor_Signal = Boolean
+Timer, Constant_1, Delay_1= Timer_Millis_Type
+Constant_1 = Timer_Cons_Lock
+Delay_1 = Time_Dly_001
+Monitor_Clear_Run = Monitor_Clear_Run_Type</t>
+  </si>
+  <si>
+    <t>Timer_Dly_001</t>
+  </si>
+  <si>
+    <t>Stage_Monitor</t>
+  </si>
+  <si>
+    <t>Monitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -719,14 +775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="1">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,107 +809,103 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="141" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>57</v>
@@ -865,98 +914,111 @@
         <v>58</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    <row r="11" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="9"/>
+      <c r="F12" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -972,14 +1034,14 @@
       <c r="D14" s="6"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="6"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1091,21 +1153,25 @@
       <c r="D31" s="6"/>
       <c r="E31" s="9"/>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,40 +1179,40 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1157,16 +1223,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1177,13 +1243,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1194,13 +1260,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1211,13 +1277,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1228,19 +1294,53 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
         <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1249,14 +1349,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,115 +1404,65 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>500</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1389,55 +1471,233 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Mapping/Other Packages.xlsx
+++ b/Mapping/Other Packages.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
   <si>
     <t>Group</t>
   </si>
   <si>
-    <t>Sub-Group</t>
-  </si>
-  <si>
     <t>Procedure</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>Parent_Hex_Subtype</t>
-  </si>
-  <si>
-    <t>Round_Robin</t>
   </si>
   <si>
     <t>Initialise_Engager</t>
@@ -148,9 +142,6 @@
     <t>Call_Failure</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Input a test Id to see if a failure occurred</t>
   </si>
   <si>
@@ -165,12 +156,6 @@
   </si>
   <si>
     <t>Clears and restarts the monitor</t>
-  </si>
-  <si>
-    <t>Warhead</t>
-  </si>
-  <si>
-    <t>Sets the density and radius of the warhead</t>
   </si>
   <si>
     <t>Stage_Run</t>
@@ -204,9 +189,6 @@
     <t>Returns a failure in the count if it occurs one in a loop</t>
   </si>
   <si>
-    <t>Release_Warhead</t>
-  </si>
-  <si>
     <t>Outputs a time based of explosion pin for explosion count check</t>
   </si>
   <si>
@@ -217,6 +199,166 @@
   </si>
   <si>
     <t>Return Target_Variable * Explosion_Count</t>
+  </si>
+  <si>
+    <t>Sets a random output from 0 to 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Target_Variable &lt; 50
+    Return_Value = 1
+else if Target_Variable &lt; 100 and &gt; 50
+      Return_Value = 2
+else if Target_Variable &lt; 150 and &gt; 100
+      Return_Value = 3
+else if Target_Variable &lt; 200 and &gt; 150
+      Return_Value = 4
+else if Target_Variable &lt; 400
+      Return_Value = 5
+else
+      Return_Value = 6
+end if
+</t>
+  </si>
+  <si>
+    <t>Explosion_Launch_Type</t>
+  </si>
+  <si>
+    <t>Target_Axis_Type</t>
+  </si>
+  <si>
+    <t>Sel_Target_Type</t>
+  </si>
+  <si>
+    <t>Target_Variable = Sel_Target_Type
+Return = Explosion_Launch_Type</t>
+  </si>
+  <si>
+    <t>Return Random(Value)</t>
+  </si>
+  <si>
+    <t>Value = Explosion_Launch_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Input'Valid
+    return Value = (Input * 50) - 100
+else 
+     return 0
+end if </t>
+  </si>
+  <si>
+    <t>Input = Target_Axis_Type
+Value = Sel_Target_Type</t>
+  </si>
+  <si>
+    <t>Target_Variable = Sel_Target_Type
+Explosion_Count = Explosion_Launch_Type</t>
+  </si>
+  <si>
+    <t>Simulation_Id = Simulation_Id_Type</t>
+  </si>
+  <si>
+    <t>Simulation_Id_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_10101000
+</t>
+  </si>
+  <si>
+    <t>Timer_Millis_Type</t>
+  </si>
+  <si>
+    <t>Count_Array_Type</t>
+  </si>
+  <si>
+    <t>Count_Array_Index_Type</t>
+  </si>
+  <si>
+    <t>Count_Value_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While Timer &lt; Time_Constant_1 loop
+   for Range of Count_Array loop
+      if Count_Array(Index) &lt; Cnt_Acc_Tmr_Cons 
+          Count_Failure_Array(Index) = True
+          Exit_Loop = True
+      else
+          Count_Failure_Array(Index) = False
+      end if
+   end loop 
+End Loop
+If Exit_Loop = True
+   Return False
+else
+   Return True
+End if </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnt_Acc_Tmr_Cons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnt_Rej_Tmr_Cons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnt_Act_Tmr_Cons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnt_Knk_Tmr_Cons </t>
+  </si>
+  <si>
+    <t>Count_Failure_Array_Type</t>
+  </si>
+  <si>
+    <t>Timer= Timer_Millis_Type
+Timer_Constant_1 = Timer_Cons_Lock
+Count_Array = Count_Array_Type
+Index = Count_Array_Index_Type
+Cnt_Acc_Tmr_Cons = Count_Value_Type
+Count_Failure_Array = Count_Failure_Array_Type
+Exit_Loop = Boolean</t>
+  </si>
+  <si>
+    <t>Timer_Cons_Lock</t>
+  </si>
+  <si>
+    <t>Signal Traces</t>
+  </si>
+  <si>
+    <t>Monitor_Clear_Run_Type</t>
+  </si>
+  <si>
+    <t>When Trigger_Monitor_Signal = TRUE
+          While Timer &lt; Constant_1
+                    Monitor_Clear_Run = True
+                    Wait for Delay_1
+                    Stage_Monitor()
+           End loop
+           Monitor_Restart = True
+           If x = Monitor_Run() = TRUE
+                 Trigger_Monitor_Signal = FALSE
+           End if
+End When</t>
+  </si>
+  <si>
+    <t>Trigger_Monitor_Signal = Boolean
+Timer, Constant_1, Delay_1= Timer_Millis_Type
+Constant_1 = Timer_Cons_Lock
+Delay_1 = Time_Dly_001
+Monitor_Clear_Run = Monitor_Clear_Run_Type</t>
+  </si>
+  <si>
+    <t>Timer_Dly_001</t>
+  </si>
+  <si>
+    <t>Stage_Monitor</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Sets the density and radius of the Device</t>
   </si>
   <si>
     <t xml:space="preserve">Stage = Pre_Start
@@ -230,7 +372,7 @@
 case Count_Release:
       Countdown_Release = Get_Count
       if Countdown_Release = True
-            x = Release_Warhead(Target_Variable)
+            x = Release_Device(Target_Variable)
             if Explosion_Count is = x
                 Stage = Get_Impact_Coverage
             else 
@@ -249,158 +391,13 @@
 </t>
   </si>
   <si>
-    <t>Sets a random output from 0 to 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Target_Variable &lt; 50
-    Return_Value = 1
-else if Target_Variable &lt; 100 and &gt; 50
-      Return_Value = 2
-else if Target_Variable &lt; 150 and &gt; 100
-      Return_Value = 3
-else if Target_Variable &lt; 200 and &gt; 150
-      Return_Value = 4
-else if Target_Variable &lt; 400
-      Return_Value = 5
-else
-      Return_Value = 6
-end if
-</t>
-  </si>
-  <si>
-    <t>Explosion_Launch_Type</t>
-  </si>
-  <si>
-    <t>Target_Axis_Type</t>
-  </si>
-  <si>
-    <t>Sel_Target_Type</t>
-  </si>
-  <si>
-    <t>Target_Variable = Sel_Target_Type
-Return = Explosion_Launch_Type</t>
-  </si>
-  <si>
-    <t>Return Random(Value)</t>
-  </si>
-  <si>
-    <t>Value = Explosion_Launch_Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Input'Valid
-    return Value = (Input * 50) - 100
-else 
-     return 0
-end if </t>
-  </si>
-  <si>
-    <t>Input = Target_Axis_Type
-Value = Sel_Target_Type</t>
-  </si>
-  <si>
-    <t>Target_Variable = Sel_Target_Type
-Explosion_Count = Explosion_Launch_Type</t>
-  </si>
-  <si>
-    <t>Simulation_Id = Simulation_Id_Type</t>
-  </si>
-  <si>
-    <t>Simulation_Id_Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test_10101000
-</t>
-  </si>
-  <si>
-    <t>Timer_Millis_Type</t>
-  </si>
-  <si>
-    <t>Count_Array_Type</t>
-  </si>
-  <si>
-    <t>Count_Array_Index_Type</t>
-  </si>
-  <si>
-    <t>Count_Value_Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While Timer &lt; Time_Constant_1 loop
-   for Range of Count_Array loop
-      if Count_Array(Index) &lt; Cnt_Acc_Tmr_Cons 
-          Count_Failure_Array(Index) = True
-          Exit_Loop = True
-      else
-          Count_Failure_Array(Index) = False
-      end if
-   end loop 
-End Loop
-If Exit_Loop = True
-   Return False
-else
-   Return True
-End if </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cnt_Acc_Tmr_Cons </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cnt_Rej_Tmr_Cons </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cnt_Act_Tmr_Cons </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cnt_Knk_Tmr_Cons </t>
-  </si>
-  <si>
-    <t>Count_Failure_Array_Type</t>
-  </si>
-  <si>
-    <t>Timer= Timer_Millis_Type
-Timer_Constant_1 = Timer_Cons_Lock
-Count_Array = Count_Array_Type
-Index = Count_Array_Index_Type
-Cnt_Acc_Tmr_Cons = Count_Value_Type
-Count_Failure_Array = Count_Failure_Array_Type
-Exit_Loop = Boolean</t>
-  </si>
-  <si>
-    <t>Timer_Cons_Lock</t>
-  </si>
-  <si>
-    <t>Signal Traces</t>
-  </si>
-  <si>
-    <t>Monitor_Clear_Run_Type</t>
-  </si>
-  <si>
-    <t>When Trigger_Monitor_Signal = TRUE
-          While Timer &lt; Constant_1
-                    Monitor_Clear_Run = True
-                    Wait for Delay_1
-                    Stage_Monitor()
-           End loop
-           Monitor_Restart = True
-           If x = Monitor_Run() = TRUE
-                 Trigger_Monitor_Signal = FALSE
-           End if
-End When</t>
-  </si>
-  <si>
-    <t>Trigger_Monitor_Signal = Boolean
-Timer, Constant_1, Delay_1= Timer_Millis_Type
-Constant_1 = Timer_Cons_Lock
-Delay_1 = Time_Dly_001
-Monitor_Clear_Run = Monitor_Clear_Run_Type</t>
-  </si>
-  <si>
-    <t>Timer_Dly_001</t>
-  </si>
-  <si>
-    <t>Stage_Monitor</t>
-  </si>
-  <si>
-    <t>Monitor</t>
+    <t>Release_Device</t>
+  </si>
+  <si>
+    <t>Configuration_Constructor</t>
+  </si>
+  <si>
+    <t>Initialises Variables for different device settings</t>
   </si>
 </sst>
 </file>
@@ -477,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -496,6 +493,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,23 +776,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,359 +805,309 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="141" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="141" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="9"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1186,33 +1135,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1223,16 +1172,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1243,13 +1192,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1260,13 +1209,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1277,13 +1226,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1294,13 +1243,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1311,13 +1260,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1328,13 +1277,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1364,18 +1313,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1404,65 +1353,65 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>500</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1488,58 +1437,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1566,30 +1515,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1600,13 +1549,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1617,13 +1566,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1634,13 +1583,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1651,13 +1600,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1668,13 +1617,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1685,13 +1634,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>

--- a/Mapping/Other Packages.xlsx
+++ b/Mapping/Other Packages.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Procedures" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1333,7 +1333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1420,7 +1420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1497,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
